--- a/experiment.xlsx
+++ b/experiment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ruhma\Desktop\psych\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FF0467-6766-4301-AE6F-7B771BD0D0B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C07F1F42-D75A-4141-90B9-F13493AE1E4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{76A2F98E-1718-4C37-9D65-F0DEBAD30DC8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="19">
   <si>
     <t>Pos_cue_exo</t>
   </si>
@@ -51,9 +51,6 @@
     <t>right</t>
   </si>
   <si>
-    <t>Pos_highlight_endo</t>
-  </si>
-  <si>
     <t>correctresp_endo</t>
   </si>
   <si>
@@ -88,6 +85,9 @@
   </si>
   <si>
     <t>neutral</t>
+  </si>
+  <si>
+    <t>[-10000,0]</t>
   </si>
 </sst>
 </file>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F616CA7-9B92-4CD6-B0DB-D3F80D4D12E4}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,14 +455,13 @@
     <col min="2" max="2" width="15.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="2"/>
-    <col min="8" max="8" width="10.5703125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="2"/>
+    <col min="5" max="5" width="18.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="10.5703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -473,235 +472,208 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
@@ -710,16 +682,36 @@
         <v>9</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="1" t="s">
+      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
